--- a/data/raw/toxcast_boyd_mw.xlsx
+++ b/data/raw/toxcast_boyd_mw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcrombie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcrombie/repos/EHP_manuscript/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC09FA6-2E91-2C45-ABF7-740A6D3B8F44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA09BF-5FB9-3B48-BE43-D6FDF2A3FC5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1835">
   <si>
     <t>INPUT</t>
   </si>
@@ -5513,6 +5513,18 @@
   </si>
   <si>
     <t>Clofentezine</t>
+  </si>
+  <si>
+    <t>Captafol</t>
+  </si>
+  <si>
+    <t>DTXSID1021160</t>
+  </si>
+  <si>
+    <t>Picloram</t>
+  </si>
+  <si>
+    <t>DTXSID4020242</t>
   </si>
 </sst>
 </file>
@@ -5531,16 +5543,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5889,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E913"/>
+  <dimension ref="A1:E915"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21416,6 +21431,40 @@
       </c>
       <c r="E913" s="3">
         <v>303.14999999999998</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>1918021</v>
+      </c>
+      <c r="B914" t="s">
+        <v>5</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E914">
+        <v>241.45</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>2425061</v>
+      </c>
+      <c r="B915" t="s">
+        <v>5</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E915">
+        <v>349.05</v>
       </c>
     </row>
   </sheetData>
